--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Management_Executive_Summary.xlsx
@@ -137,7 +137,7 @@
     <t>As of date:Jun,2020</t>
   </si>
   <si>
-    <t>Printed on:2020-09-18 15:02</t>
+    <t>Printed on:2020-10-20 04:58</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -348,7 +348,7 @@
     <t>Percent of Assets</t>
   </si>
   <si>
-    <t>Bank*(Jun20)</t>
+    <t>Bank*(Dec19)</t>
   </si>
   <si>
     <t>Peer Group*(Dec18)</t>
@@ -399,7 +399,7 @@
     <t>Liquidity Ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">Peer Group*: FFIEC [104M], Mutually-owned insured savings banks having assets less than $100 million, it has 96 banks, 96 banks have data  as of 12/31/2018.</t>
+    <t xml:space="preserve">Peer Group*: FFIEC [103M], Mutually-owned insured savings banks having assets between $100 million and $300 million, it has 97 banks, 97 banks have data  as of 12/31/2018.</t>
   </si>
   <si>
     <t>Equity to Assets</t>
@@ -619,7 +619,7 @@
     <t>Bubble Location: Comparing the Risk Adjusted Margin to the CECL rate.</t>
   </si>
   <si>
-    <t>Dupont Analysis(based on:Jun20)</t>
+    <t>Dupont Analysis(based on:Dec19)</t>
   </si>
   <si>
     <t>Notes:</t>
@@ -5980,7 +5980,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>$60,730</a:t>
+            <a:t>$113,237</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
             <a:solidFill>
@@ -6068,8 +6068,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.27%
-$164</a:t>
+            <a:t>0.91%
+$1,029</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6149,8 +6149,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.00%
-$0</a:t>
+            <a:t>0.23%
+$266</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6230,8 +6230,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.27%
-$164</a:t>
+            <a:t>1.14%
+$1,295</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6317,8 +6317,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>3.75%
-$2,275</a:t>
+            <a:t>4.23%
+$4,788</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6404,8 +6404,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.58%
-$352</a:t>
+            <a:t>0.76%
+$858</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6491,8 +6491,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>4.32%
-$2,626</a:t>
+            <a:t>4.99%
+$5,646</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6578,8 +6578,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.00%
-$0</a:t>
+            <a:t>0.07%
+$74</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6665,8 +6665,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.58%
-$352</a:t>
+            <a:t>0.76%
+$858</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6926,8 +6926,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>-3.48%
--$2,111</a:t>
+            <a:t>-3.02%
+-$3,419</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7013,8 +7013,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.49%
-$299</a:t>
+            <a:t>0.66%
+$746</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7100,8 +7100,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>3.97%
-$2,410</a:t>
+            <a:t>3.68%
+$4,165</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7187,8 +7187,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>0.01%
-$6</a:t>
+            <a:t>0.10%
+$109</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7274,8 +7274,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>1.62%
-$982</a:t>
+            <a:t>0.09%
+$101</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7361,8 +7361,8 @@
               </a:solidFill>
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
-            <a:t>2.69%
-$1,636</a:t>
+            <a:t>4.80%
+$5,437</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7449,7 +7449,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>0.00%
-$3</a:t>
+$0</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9410,11 +9410,11 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
       <c r="F25" s="68">
-        <v>0.00555753836740937</v>
+        <v>0.00961365318821152</v>
       </c>
       <c r="G25" s="49"/>
       <c r="H25" s="68">
-        <v>0.0032</v>
+        <v>0.0055</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
@@ -9423,11 +9423,11 @@
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="67">
-        <v>0.0279707731258491</v>
+        <v>0.0286483892867729</v>
       </c>
       <c r="O25" s="47"/>
       <c r="P25" s="67">
-        <v>0.00290666005</v>
+        <v>0.00564654599999999</v>
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
@@ -9439,11 +9439,11 @@
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
       <c r="F26" s="68">
-        <v>0.0257439773264053</v>
+        <v>0.0807834566240753</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="68">
-        <v>0.0190280598947358</v>
+        <v>0.0363463894720236</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -9452,11 +9452,11 @@
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="67">
-        <v>0.434035179696184</v>
+        <v>0.00963902429695643</v>
       </c>
       <c r="O26" s="47"/>
       <c r="P26" s="67">
-        <v>0.0019841871</v>
+        <v>0.0031593996</v>
       </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="47"/>
@@ -9468,11 +9468,11 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="68">
-        <v>0.0350570417271868</v>
+        <v>0.0498457559020895</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="69">
-        <v>0.0335</v>
+        <v>0.0333</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="52"/>
@@ -9481,11 +9481,11 @@
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="67">
-        <v>0.112285136470298</v>
+        <v>0.014744012774787</v>
       </c>
       <c r="O27" s="47"/>
       <c r="P27" s="67">
-        <v>0.003183899225</v>
+        <v>0.00480099239999999</v>
       </c>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
@@ -9497,11 +9497,11 @@
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="68">
-        <v>0.0400772777910961</v>
+        <v>0.0575738622510097</v>
       </c>
       <c r="G28" s="49"/>
       <c r="H28" s="69">
-        <v>0.0409</v>
+        <v>0.0402</v>
       </c>
       <c r="I28" s="51"/>
       <c r="J28" s="52"/>
@@ -9510,11 +9510,11 @@
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="67">
-        <v>5.74348524144682E-05</v>
+        <v>0.00294432449488912</v>
       </c>
       <c r="O28" s="47"/>
       <c r="P28" s="67">
-        <v>0.103425253625</v>
+        <v>0.124393062</v>
       </c>
       <c r="Q28" s="47"/>
       <c r="R28" s="47"/>
@@ -9526,11 +9526,11 @@
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="68">
-        <v>0.0730526497795453</v>
+        <v>0.0627252279488234</v>
       </c>
       <c r="G29" s="49"/>
       <c r="H29" s="69">
-        <v>0.0494</v>
+        <v>0.0463</v>
       </c>
       <c r="I29" s="51"/>
       <c r="J29" s="52"/>
@@ -9539,11 +9539,11 @@
       </c>
       <c r="M29" s="46"/>
       <c r="N29" s="67">
-        <v>0.574348524144745</v>
+        <v>0.0559757508534055</v>
       </c>
       <c r="O29" s="47"/>
       <c r="P29" s="67">
-        <v>0.1115</v>
+        <v>0.138</v>
       </c>
       <c r="Q29" s="47"/>
       <c r="R29" s="47"/>
@@ -9555,11 +9555,11 @@
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="68">
-        <v>0.0253879360634698</v>
+        <v>0.0208158870678311</v>
       </c>
       <c r="G30" s="49"/>
       <c r="H30" s="68">
-        <v>0.0235</v>
+        <v>0.025</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -9571,11 +9571,11 @@
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
       <c r="F31" s="68">
-        <v>0.005589047977895</v>
+        <v>0.00791341916154665</v>
       </c>
       <c r="G31" s="49"/>
       <c r="H31" s="68">
-        <v>0.00853542545018776</v>
+        <v>0.00765896870304462</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
@@ -9587,11 +9587,11 @@
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="68">
-        <v>0.884728340675477</v>
+        <v>0.764500734214391</v>
       </c>
       <c r="G32" s="49"/>
       <c r="H32" s="68">
-        <v>0.8619</v>
+        <v>0.7849</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
@@ -9613,11 +9613,11 @@
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
       <c r="F33" s="68">
-        <v>0.15542577241899</v>
+        <v>0.0966761468487441</v>
       </c>
       <c r="G33" s="49"/>
       <c r="H33" s="69">
-        <v>0.148708750449046</v>
+        <v>0.0974456479602755</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="52"/>
@@ -9640,11 +9640,11 @@
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
       <c r="F34" s="68">
-        <v>0.213338273434605</v>
+        <v>0.1191325384152</v>
       </c>
       <c r="G34" s="49"/>
       <c r="H34" s="69">
-        <v>0.168172689055141</v>
+        <v>0.151321770329717</v>
       </c>
       <c r="I34" s="51"/>
       <c r="J34" s="52"/>
@@ -9665,11 +9665,11 @@
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
       <c r="F35" s="68">
-        <v>0.303285167345931</v>
+        <v>0.837991604593569</v>
       </c>
       <c r="G35" s="49"/>
       <c r="H35" s="69">
-        <v>0.6707</v>
+        <v>0.690899999999999</v>
       </c>
       <c r="I35" s="51"/>
       <c r="J35" s="52"/>
@@ -9690,11 +9690,11 @@
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
       <c r="F36" s="68">
-        <v>1.4216163019567</v>
+        <v>7.03411188698932</v>
       </c>
       <c r="G36" s="49"/>
       <c r="H36" s="69">
-        <v>3.98816242856228</v>
+        <v>4.56576736113111</v>
       </c>
       <c r="I36" s="51"/>
       <c r="J36" s="52"/>
@@ -9715,11 +9715,11 @@
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
       <c r="F37" s="68">
-        <v>0.387236659518103</v>
+        <v>0.955172150712254</v>
       </c>
       <c r="G37" s="49"/>
       <c r="H37" s="69">
-        <v>0.820026898153808</v>
+        <v>0.820546318289788</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="52"/>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="69">
-        <v>0.032441302701338</v>
+        <v>0.0463526780166522</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="52"/>
@@ -9764,11 +9764,11 @@
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="68">
-        <v>0</v>
+        <v>0.00593948149931776</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="69">
-        <v>0.0220011942532882</v>
+        <v>0.0303987984675106</v>
       </c>
       <c r="I39" s="51"/>
       <c r="J39" s="52"/>
@@ -9916,16 +9916,16 @@
         <v>-0.415584415584416</v>
       </c>
       <c r="O46" s="72">
-        <v>0.000662410429420157</v>
+        <v>0.000662410425851592</v>
       </c>
       <c r="P46" s="72">
-        <v>-0.00525848848571022</v>
+        <v>-0.00525848850118264</v>
       </c>
       <c r="Q46" s="72">
-        <v>-0.0241983518646792</v>
+        <v>-0.024198351956217</v>
       </c>
       <c r="R46" s="72">
-        <v>-0.0277910534713925</v>
+        <v>-0.0277910533911993</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -10216,19 +10216,19 @@
         <v>9900</v>
       </c>
       <c r="F55" s="71">
-        <v>9901.8880167298</v>
+        <v>9901.88801685563</v>
       </c>
       <c r="G55" s="71">
-        <v>9908.3818219098684</v>
+        <v>9908.38182188051</v>
       </c>
       <c r="H55" s="71">
-        <v>9901.48237178739</v>
+        <v>9901.48237138243</v>
       </c>
       <c r="I55" s="71">
-        <v>9877.7098477543113</v>
+        <v>9877.70984749698</v>
       </c>
       <c r="J55" s="71">
-        <v>9897.36551454534</v>
+        <v>9897.3655144038912</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10354,19 +10354,19 @@
         <v>80969</v>
       </c>
       <c r="F58" s="71">
-        <v>80970.8880167298</v>
+        <v>80970.888016855592</v>
       </c>
       <c r="G58" s="71">
-        <v>80977.3818219098</v>
+        <v>80977.38182188051</v>
       </c>
       <c r="H58" s="71">
-        <v>80970.4823717874</v>
+        <v>80970.4823713824</v>
       </c>
       <c r="I58" s="71">
-        <v>80946.7098477543</v>
+        <v>80946.709847497</v>
       </c>
       <c r="J58" s="71">
-        <v>80966.365514545309</v>
+        <v>80966.3655144039</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10400,19 +10400,19 @@
         <v>80961</v>
       </c>
       <c r="F59" s="71">
-        <v>80962.8880167298</v>
+        <v>80962.888016855592</v>
       </c>
       <c r="G59" s="71">
-        <v>80969.3818219098</v>
+        <v>80969.38182188051</v>
       </c>
       <c r="H59" s="71">
-        <v>80962.4823717874</v>
+        <v>80962.4823713824</v>
       </c>
       <c r="I59" s="71">
-        <v>80938.7098477543</v>
+        <v>80938.709847497</v>
       </c>
       <c r="J59" s="71">
-        <v>80958.365514545309</v>
+        <v>80958.3655144039</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10446,19 +10446,19 @@
         <v>15973</v>
       </c>
       <c r="F60" s="71">
-        <v>15974.8880167298</v>
+        <v>15974.888016855599</v>
       </c>
       <c r="G60" s="71">
-        <v>15981.3818219098</v>
+        <v>15981.3818218805</v>
       </c>
       <c r="H60" s="71">
-        <v>15974.4823717874</v>
+        <v>15974.4823713824</v>
       </c>
       <c r="I60" s="71">
-        <v>15950.7098477543</v>
+        <v>15950.709847496999</v>
       </c>
       <c r="J60" s="71">
-        <v>15970.3655145453</v>
+        <v>15970.3655144039</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10492,19 +10492,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="71">
-        <v>612.440432573653</v>
+        <v>612.44043257362193</v>
       </c>
       <c r="G61" s="71">
-        <v>592.939574377001</v>
+        <v>592.93957437690608</v>
       </c>
       <c r="H61" s="71">
-        <v>566.557832044854</v>
+        <v>566.557832044548</v>
       </c>
       <c r="I61" s="71">
-        <v>542.755179894675</v>
+        <v>542.75517989458706</v>
       </c>
       <c r="J61" s="71">
-        <v>2314.69301889018</v>
+        <v>2314.69301888966</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10538,19 +10538,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="71">
-        <v>92.4246937275253</v>
+        <v>92.4246937276043</v>
       </c>
       <c r="G62" s="71">
-        <v>81.397449970029214</v>
+        <v>81.397449970016</v>
       </c>
       <c r="H62" s="71">
-        <v>72.7562664253824</v>
+        <v>72.756266425119392</v>
       </c>
       <c r="I62" s="71">
-        <v>63.6502659685598</v>
+        <v>63.6502659684317</v>
       </c>
       <c r="J62" s="71">
-        <v>310.228676091497</v>
+        <v>310.228676091171</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="46" t="s">
@@ -10584,19 +10584,19 @@
         <v>0</v>
       </c>
       <c r="F63" s="71">
-        <v>520.015738846127</v>
+        <v>520.015738846017</v>
       </c>
       <c r="G63" s="71">
-        <v>511.54212440697097</v>
+        <v>511.54212440689</v>
       </c>
       <c r="H63" s="71">
-        <v>493.80156561947</v>
+        <v>493.80156561942897</v>
       </c>
       <c r="I63" s="71">
-        <v>479.10491392611397</v>
+        <v>479.104913926157</v>
       </c>
       <c r="J63" s="71">
-        <v>2004.46434279868</v>
+        <v>2004.4643427984902</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10630,19 +10630,19 @@
         <v>0</v>
       </c>
       <c r="F64" s="71">
-        <v>7.51573884612843</v>
+        <v>7.51573884601897</v>
       </c>
       <c r="G64" s="71">
-        <v>-0.957875593027362</v>
+        <v>-0.957875593109464</v>
       </c>
       <c r="H64" s="71">
-        <v>-18.698434380528298</v>
+        <v>-18.698434380570298</v>
       </c>
       <c r="I64" s="71">
-        <v>-33.395086073885004</v>
+        <v>-33.395086073842805</v>
       </c>
       <c r="J64" s="71">
-        <v>-45.5356572013122</v>
+        <v>-45.5356572015036</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
@@ -11484,10 +11484,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>1.921759753</v>
+        <v>1.8666168149</v>
       </c>
       <c r="C2" s="2">
-        <v>1.98818859</v>
+        <v>2.14180297</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>

--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Management_Executive_Summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -89,24 +89,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>1-4 Fam 6 mo Libor</t>
-  </si>
-  <si>
-    <t>Floating Rate 2nd closed e</t>
-  </si>
-  <si>
-    <t>Fixed Rate Construction</t>
-  </si>
-  <si>
-    <t>Floating Rate Construction</t>
-  </si>
-  <si>
-    <t>Fixed Rate Multi Family 30</t>
-  </si>
-  <si>
-    <t>Floating Rate Multi Family</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -137,7 +119,7 @@
     <t>As of date:Jun,2020</t>
   </si>
   <si>
-    <t>Printed on:2020-10-20 04:58</t>
+    <t>Printed on:2020-11-12 04:55</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -160,7 +142,7 @@
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Which metric we can improve in comparing with our peers? </t>
+      <t xml:space="preserve"> Which metric can we improve on comparing with our peers? </t>
     </r>
   </si>
   <si>
@@ -202,7 +184,7 @@
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t>: Is the projected rates reasonable for strategy developments?</t>
+      <t>: Are the projected rates reasonable for strategy developments?</t>
     </r>
   </si>
   <si>
@@ -307,7 +289,7 @@
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> How should we adjust to lending rate to optimize product mix?</t>
+      <t xml:space="preserve"> How should we adjust lending rate to optimize product mix?</t>
     </r>
   </si>
   <si>
@@ -328,7 +310,7 @@
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Which drivers of the ROA that we can improve?</t>
+      <t xml:space="preserve"> Which drivers of the ROA can we improve?</t>
     </r>
   </si>
   <si>
@@ -598,7 +580,7 @@
     <t>EVE (flattener) %chg</t>
   </si>
   <si>
-    <t>* The "Past 6m-Past 3m" IS numbers are from CALL, and the "Past 3m-Current" IS numbers are from CALL.</t>
+    <t>* The "Past 6m-Past 3m" Income Statement numbers are from CALL, and the "Past 3m-Current" Income Statement numbers are from CALL.</t>
   </si>
   <si>
     <t>Historical Loan Production Trends</t>
@@ -1997,286 +1979,6 @@
       </c:layout>
       <c:bubbleChart>
         <c:varyColors val="0"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>1-4 Fam 6 mo Libor</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$2</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$2</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$2</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="DC143C"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:v>Floating Rate 2nd closed e</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$3</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$3</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$3</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFB6C1"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:v>Fixed Rate Construction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$4</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$4</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$4</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFA500"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:v>Floating Rate Construction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$5</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$5</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$5</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:v>Floating Rate Construction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$6</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$6</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$6</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="90EE90"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:v>Floating Rate Construction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$7</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$7</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$7</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="008000"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:v>Floating Rate Construction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$8</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$8</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$8</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00BFFF"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:v>Fixed Rate Multi Family 30</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$9</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$9</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$9</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0000FF"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$10</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$10</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$10</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Floating Rate Multi Family</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$B$11</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Sheet3'!$C$11</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
-            <c:numRef>
-              <c:f>'Sheet3'!$D$11</c:f>
-            </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="800080"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2287,11 +1989,11 @@
         </c:dLbls>
         <c:bubbleScale val="15"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="213661952"/>
-        <c:axId val="213664128"/>
+        <c:axId val="221740032"/>
+        <c:axId val="222102656"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="213661952"/>
+        <c:axId val="221740032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +2040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213664128"/>
+        <c:crossAx val="222102656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213664128"/>
+        <c:axId val="222102656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2114,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213661952"/>
+        <c:crossAx val="221740032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2851,8 +2553,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="213696512"/>
-        <c:axId val="213698048"/>
+        <c:axId val="222151424"/>
+        <c:axId val="222152960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2885,11 +2587,11 @@
         </ser>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213696512"/>
-        <c:axId val="213698048"/>
+        <c:axId val="222151424"/>
+        <c:axId val="222152960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213696512"/>
+        <c:axId val="222151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213698048"/>
+        <c:crossAx val="222152960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2917,7 +2619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213698048"/>
+        <c:axId val="222152960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,7 +2667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213696512"/>
+        <c:crossAx val="222151424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,11 +2777,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="213705472"/>
-        <c:axId val="213707008"/>
+        <c:axId val="222164480"/>
+        <c:axId val="222166016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="213705472"/>
+        <c:axId val="222164480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +2801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213707008"/>
+        <c:crossAx val="222166016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3107,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213707008"/>
+        <c:axId val="222166016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +2857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213705472"/>
+        <c:crossAx val="222164480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3368,11 +3070,11 @@
         </c:dLbls>
         <c:bubbleScale val="50"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="213478784"/>
-        <c:axId val="213489152"/>
+        <c:axId val="222206592"/>
+        <c:axId val="222208768"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="213478784"/>
+        <c:axId val="222206592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3420,12 +3122,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213489152"/>
+        <c:crossAx val="222208768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213489152"/>
+        <c:axId val="222208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3499,7 +3201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213478784"/>
+        <c:crossAx val="222206592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7715,11 +7417,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9039225" cy="1317625"/>
+    <xdr:ext cx="9039225" cy="1196975"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="TextBox 68">
@@ -7733,8 +7435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="14214475"/>
-          <a:ext cx="9039225" cy="1317625"/>
+          <a:off x="85725" y="15681325"/>
+          <a:ext cx="9039225" cy="1196975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7788,7 +7490,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>·      Financial Projections let senior management to evaluate the proforma statements based on the current plan. The proforma results can be compared with the budgeting plan, peer group key performance ratios, and benchmark alternative strategies .</a:t>
+            <a:t>·     Financial Projections let senior management to evaluate the proforma statements based on the current plan. The proforma results can be compared with the budgeting plan, peer group key performance ratios, and benchmark alternative strategies .</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1050">
             <a:effectLst/>
@@ -7806,7 +7508,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>·      Interest Rate Risk Exposure assures senior management that the strategy would not exceed EVE policy limits in 12 months.</a:t>
+            <a:t>·     Interest Rate Risk Exposure assures senior management that the strategy would not exceed EVE policy limits in 12 months.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1050">
             <a:effectLst/>
@@ -9009,7 +8711,7 @@
     <row r="3" hidden="1" ht="16.5" customHeight="1"/>
     <row r="4" ht="33.75" customHeight="1">
       <c r="C4" s="63" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
@@ -9029,7 +8731,7 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="C5" s="45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -9050,7 +8752,7 @@
     <row r="6" ht="15.75"/>
     <row r="7" ht="16.5" customHeight="1">
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -9070,7 +8772,7 @@
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -9087,7 +8789,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -9126,7 +8828,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9146,7 +8848,7 @@
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
@@ -9166,7 +8868,7 @@
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
@@ -9186,7 +8888,7 @@
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
@@ -9206,7 +8908,7 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
@@ -9226,7 +8928,7 @@
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
@@ -9246,7 +8948,7 @@
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
@@ -9266,7 +8968,7 @@
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
@@ -9286,7 +8988,7 @@
     </row>
     <row r="19" ht="16.5" customHeight="1">
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
@@ -9306,7 +9008,7 @@
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
@@ -9344,10 +9046,10 @@
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="C22" s="27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
@@ -9355,7 +9057,7 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="C23" s="50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -9371,11 +9073,11 @@
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
       <c r="L23" s="54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M23" s="54"/>
       <c r="N23" s="66" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
@@ -9394,18 +9096,18 @@
       <c r="L24" s="54"/>
       <c r="M24" s="54"/>
       <c r="N24" s="66" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="54"/>
       <c r="R24" s="54"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="C25" s="46" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
@@ -9419,7 +9121,7 @@
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="L25" s="46" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="67">
@@ -9434,7 +9136,7 @@
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="C26" s="46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
@@ -9448,7 +9150,7 @@
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
       <c r="L26" s="46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M26" s="46"/>
       <c r="N26" s="67">
@@ -9463,7 +9165,7 @@
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="C27" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
@@ -9477,7 +9179,7 @@
       <c r="I27" s="51"/>
       <c r="J27" s="52"/>
       <c r="L27" s="46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M27" s="46"/>
       <c r="N27" s="67">
@@ -9492,7 +9194,7 @@
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="C28" s="46" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
@@ -9506,7 +9208,7 @@
       <c r="I28" s="51"/>
       <c r="J28" s="52"/>
       <c r="L28" s="46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M28" s="46"/>
       <c r="N28" s="67">
@@ -9521,7 +9223,7 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="C29" s="46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
@@ -9535,7 +9237,7 @@
       <c r="I29" s="51"/>
       <c r="J29" s="52"/>
       <c r="L29" s="46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M29" s="46"/>
       <c r="N29" s="67">
@@ -9550,7 +9252,7 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="C30" s="46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
@@ -9566,7 +9268,7 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="C31" s="46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
@@ -9582,7 +9284,7 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="C32" s="46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
@@ -9597,7 +9299,7 @@
       <c r="J32" s="48"/>
       <c r="K32" s="28"/>
       <c r="L32" s="43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M32" s="44"/>
       <c r="N32" s="44"/>
@@ -9608,7 +9310,7 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="C33" s="46" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
@@ -9623,7 +9325,7 @@
       <c r="J33" s="52"/>
       <c r="K33" s="28"/>
       <c r="L33" s="55" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M33" s="56"/>
       <c r="N33" s="56"/>
@@ -9635,7 +9337,7 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="C34" s="46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
@@ -9660,7 +9362,7 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="C35" s="46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
@@ -9685,7 +9387,7 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="C36" s="46" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
@@ -9710,7 +9412,7 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="C37" s="46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
@@ -9735,7 +9437,7 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="C38" s="59" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
@@ -9759,7 +9461,7 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="C39" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
@@ -9834,22 +9536,22 @@
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="C44" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L44" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="39.6" customHeight="1">
       <c r="C45" s="54" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D45" s="54"/>
       <c r="E45" s="24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G45" s="73">
         <v>44166</v>
@@ -9865,11 +9567,11 @@
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="54" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M45" s="54"/>
       <c r="N45" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O45" s="73">
         <v>44166</v>
@@ -9886,7 +9588,7 @@
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="C46" s="64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D46" s="64"/>
       <c r="E46" s="67">
@@ -9909,28 +9611,28 @@
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M46" s="65"/>
       <c r="N46" s="72">
         <v>-0.415584415584416</v>
       </c>
       <c r="O46" s="72">
-        <v>0.000662410425851592</v>
+        <v>0.000662399947064731</v>
       </c>
       <c r="P46" s="72">
-        <v>-0.00525848850118264</v>
+        <v>-0.00525859333197652</v>
       </c>
       <c r="Q46" s="72">
-        <v>-0.024198351956217</v>
+        <v>-0.0241985479752588</v>
       </c>
       <c r="R46" s="72">
-        <v>-0.0277910533911993</v>
+        <v>-0.0277912949242662</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="C47" s="64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D47" s="64"/>
       <c r="E47" s="67">
@@ -9953,7 +9655,7 @@
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M47" s="65"/>
       <c r="N47" s="72">
@@ -9974,7 +9676,7 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="C48" s="64" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D48" s="64"/>
       <c r="E48" s="67">
@@ -9997,11 +9699,11 @@
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="65" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M48" s="65"/>
       <c r="N48" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O48" s="72">
         <v>0</v>
@@ -10018,7 +9720,7 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="C49" s="64" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D49" s="64"/>
       <c r="E49" s="67">
@@ -10041,7 +9743,7 @@
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="65" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M49" s="65"/>
       <c r="N49" s="72">
@@ -10062,7 +9764,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="C50" s="64" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D50" s="64"/>
       <c r="E50" s="67">
@@ -10085,7 +9787,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="65" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M50" s="65"/>
       <c r="N50" s="72">
@@ -10106,7 +9808,7 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="C51" s="64" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D51" s="64"/>
       <c r="E51" s="67">
@@ -10129,7 +9831,7 @@
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M51" s="65"/>
       <c r="N51" s="72">
@@ -10151,63 +9853,63 @@
     <row r="52" ht="111.75" customHeight="1"/>
     <row r="53" ht="16.5" customHeight="1">
       <c r="C53" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K53" s="27"/>
       <c r="L53" s="27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M53" s="32"/>
     </row>
     <row r="54" ht="55.35" customHeight="1">
       <c r="C54" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="J54" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M54" s="54"/>
       <c r="N54" s="24" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="R54" s="24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="C55" s="23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D55" s="70">
         <v>0</v>
@@ -10216,44 +9918,44 @@
         <v>9900</v>
       </c>
       <c r="F55" s="71">
-        <v>9901.88801685563</v>
+        <v>9901.88801745959</v>
       </c>
       <c r="G55" s="71">
-        <v>9908.38182188051</v>
+        <v>9908.38180128533</v>
       </c>
       <c r="H55" s="71">
-        <v>9901.48237138243</v>
+        <v>9901.48216775918</v>
       </c>
       <c r="I55" s="71">
-        <v>9877.70984749698</v>
+        <v>9877.70916384862</v>
       </c>
       <c r="J55" s="71">
-        <v>9897.3655144038912</v>
+        <v>9897.36528758818</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M55" s="46"/>
       <c r="N55" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O55" s="71">
-        <v>17441.1655196956</v>
+        <v>17440.9030337024</v>
       </c>
       <c r="P55" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R55" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="C56" s="23" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D56" s="70">
         <v>88736</v>
@@ -10278,28 +9980,28 @@
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="46" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M56" s="46"/>
       <c r="N56" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O56" s="74">
-        <v>2.7250774197029</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R56" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="C57" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D57" s="70">
         <v>0</v>
@@ -10324,28 +10026,28 @@
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M57" s="46"/>
       <c r="N57" s="67">
         <v>0.1</v>
       </c>
       <c r="O57" s="67">
-        <v>0.213250134564751</v>
+        <v>0.21324760958433</v>
       </c>
       <c r="P57" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R57" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="C58" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D58" s="70">
         <v>100934</v>
@@ -10354,44 +10056,44 @@
         <v>80969</v>
       </c>
       <c r="F58" s="71">
-        <v>80970.888016855592</v>
+        <v>80970.8880174596</v>
       </c>
       <c r="G58" s="71">
-        <v>80977.38182188051</v>
+        <v>80977.3818012854</v>
       </c>
       <c r="H58" s="71">
-        <v>80970.4823713824</v>
+        <v>80970.4821677592</v>
       </c>
       <c r="I58" s="71">
-        <v>80946.709847497</v>
+        <v>80946.709163848587</v>
       </c>
       <c r="J58" s="71">
-        <v>80966.3655144039</v>
+        <v>80966.3652875882</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M58" s="46"/>
       <c r="N58" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O58" s="67">
-        <v>0.0133100784361085</v>
+        <v>0.0133061782095199</v>
       </c>
       <c r="P58" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="C59" s="23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D59" s="70">
         <v>97760</v>
@@ -10400,44 +10102,44 @@
         <v>80961</v>
       </c>
       <c r="F59" s="71">
-        <v>80962.888016855592</v>
+        <v>80962.8880174596</v>
       </c>
       <c r="G59" s="71">
-        <v>80969.38182188051</v>
+        <v>80969.3818012854</v>
       </c>
       <c r="H59" s="71">
-        <v>80962.4823713824</v>
+        <v>80962.4821677592</v>
       </c>
       <c r="I59" s="71">
-        <v>80938.709847497</v>
+        <v>80938.709163848587</v>
       </c>
       <c r="J59" s="71">
-        <v>80958.3655144039</v>
+        <v>80958.3652875882</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M59" s="46"/>
       <c r="N59" s="67">
         <v>-0.1</v>
       </c>
       <c r="O59" s="67">
-        <v>0.0110499876202059</v>
+        <v>0.0110461416411649</v>
       </c>
       <c r="P59" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R59" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="C60" s="23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D60" s="70">
         <v>0</v>
@@ -10446,44 +10148,44 @@
         <v>15973</v>
       </c>
       <c r="F60" s="71">
-        <v>15974.888016855599</v>
+        <v>15974.8880174596</v>
       </c>
       <c r="G60" s="71">
-        <v>15981.3818218805</v>
+        <v>15981.381801285399</v>
       </c>
       <c r="H60" s="71">
-        <v>15974.4823713824</v>
+        <v>15974.4821677592</v>
       </c>
       <c r="I60" s="71">
-        <v>15950.709847496999</v>
+        <v>15950.7091638486</v>
       </c>
       <c r="J60" s="71">
-        <v>15970.3655144039</v>
+        <v>15970.3652875882</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M60" s="46"/>
       <c r="N60" s="67">
         <v>-0.1</v>
       </c>
       <c r="O60" s="67">
-        <v>-0.071723706902303</v>
+        <v>-0.0717205439464773</v>
       </c>
       <c r="P60" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R60" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="C61" s="23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D61" s="70">
         <v>0</v>
@@ -10492,44 +10194,44 @@
         <v>0</v>
       </c>
       <c r="F61" s="71">
-        <v>612.44043257362193</v>
+        <v>612.4404315967771</v>
       </c>
       <c r="G61" s="71">
-        <v>592.93957437690608</v>
+        <v>592.939471628906</v>
       </c>
       <c r="H61" s="71">
-        <v>566.557832044548</v>
+        <v>566.55745892435607</v>
       </c>
       <c r="I61" s="71">
-        <v>542.75517989458706</v>
+        <v>542.754514987492</v>
       </c>
       <c r="J61" s="71">
-        <v>2314.69301888966</v>
+        <v>2314.6918771375304</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M61" s="46"/>
       <c r="N61" s="67">
         <v>-0.15</v>
       </c>
       <c r="O61" s="67">
-        <v>-0.213859451105874</v>
+        <v>-0.213855561229046</v>
       </c>
       <c r="P61" s="76" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R61" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="C62" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D62" s="70">
         <v>0</v>
@@ -10554,28 +10256,28 @@
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="46" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M62" s="46"/>
       <c r="N62" s="67">
         <v>-0.25</v>
       </c>
       <c r="O62" s="67">
-        <v>-0.391130454551036</v>
+        <v>-0.391127306974695</v>
       </c>
       <c r="P62" s="76" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R62" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="C63" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D63" s="70">
         <v>0</v>
@@ -10584,44 +10286,44 @@
         <v>0</v>
       </c>
       <c r="F63" s="71">
-        <v>520.015738846017</v>
+        <v>520.015737869173</v>
       </c>
       <c r="G63" s="71">
-        <v>511.54212440689</v>
+        <v>511.54202165888904</v>
       </c>
       <c r="H63" s="71">
-        <v>493.80156561942897</v>
+        <v>493.801192499236</v>
       </c>
       <c r="I63" s="71">
-        <v>479.104913926157</v>
+        <v>479.10424901906</v>
       </c>
       <c r="J63" s="71">
-        <v>2004.4643427984902</v>
+        <v>2004.46320104636</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M63" s="46"/>
       <c r="N63" s="67">
         <v>-0.35</v>
       </c>
       <c r="O63" s="67">
-        <v>-0.557338405177926</v>
+        <v>-0.557337544384045</v>
       </c>
       <c r="P63" s="76" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R63" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="C64" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D64" s="70">
         <v>0</v>
@@ -10630,44 +10332,44 @@
         <v>0</v>
       </c>
       <c r="F64" s="71">
-        <v>7.51573884601897</v>
+        <v>7.51573786917288</v>
       </c>
       <c r="G64" s="71">
-        <v>-0.957875593109464</v>
+        <v>-0.95797834110941094</v>
       </c>
       <c r="H64" s="71">
-        <v>-18.698434380570298</v>
+        <v>-18.6988075007621</v>
       </c>
       <c r="I64" s="71">
-        <v>-33.395086073842805</v>
+        <v>-33.395750980939006</v>
       </c>
       <c r="J64" s="71">
-        <v>-45.5356572015036</v>
+        <v>-45.5367989536376</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M64" s="46"/>
       <c r="N64" s="67">
         <v>-0.25</v>
       </c>
       <c r="O64" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P64" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R64" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="C65" s="25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D65" s="42">
         <f>IF(D59=0,0,D63/D59*4)</f>
@@ -10699,62 +10401,62 @@
       </c>
       <c r="K65" s="6"/>
       <c r="L65" s="46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M65" s="46"/>
       <c r="N65" s="67">
         <v>-0.25</v>
       </c>
       <c r="O65" s="67">
-        <v>-0.0856364982772476</v>
+        <v>-0.0856335735206052</v>
       </c>
       <c r="P65" s="75" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R65" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" ht="7.5" customHeight="1">
       <c r="L66" s="33"/>
       <c r="M66" s="33"/>
       <c r="N66" s="34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O66" s="34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P66" s="35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="Q66" s="34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="R66" s="35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="C67" s="29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" ht="9.75" customHeight="1"/>
     <row r="75" ht="16.5" customHeight="1">
       <c r="C75" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" ht="11.25" customHeight="1"/>
     <row r="91" ht="28.5" customHeight="1">
       <c r="C91" s="27" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -10763,7 +10465,7 @@
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
       <c r="J91" s="27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K91" s="27"/>
       <c r="L91" s="27"/>
@@ -10777,7 +10479,7 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="B110" s="29"/>
       <c r="C110" s="29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
@@ -10789,7 +10491,7 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="B111" s="29"/>
       <c r="C111" s="29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29"/>
@@ -10801,7 +10503,7 @@
     <row r="115"/>
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B117" s="58"/>
       <c r="C117" s="58"/>
@@ -10821,93 +10523,93 @@
     </row>
     <row r="141" ht="16.5" customHeight="1">
       <c r="C141" s="27" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" ht="13.5" customHeight="1"/>
     <row r="145" ht="16.5" customHeight="1">
       <c r="C145" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" ht="16.5" customHeight="1">
       <c r="D146" s="26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G146" s="36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" ht="16.5" customHeight="1">
       <c r="D147" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G147" s="36" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" ht="16.5" customHeight="1">
       <c r="D148" s="26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G148" s="36" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" ht="16.5" customHeight="1">
       <c r="D149" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G149" s="36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" ht="16.5" customHeight="1">
       <c r="D150" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G150" s="36" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" ht="16.5" customHeight="1">
       <c r="D151" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G151" s="36" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" ht="16.5" customHeight="1">
       <c r="D152" s="26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G152" s="36" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" ht="16.5" customHeight="1">
       <c r="D153" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G153" s="36" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" ht="16.5" customHeight="1">
       <c r="D154" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G154" s="36" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" ht="16.5" customHeight="1">
       <c r="D155" s="26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G155" s="36" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H155" s="37"/>
       <c r="I155" s="37"/>
@@ -10922,26 +10624,26 @@
     </row>
     <row r="156" ht="16.5" customHeight="1">
       <c r="D156" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" ht="16.5" customHeight="1">
       <c r="D157" s="26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G157" s="39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" ht="16.5" customHeight="1">
       <c r="D158" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G158" s="39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H158" s="38"/>
       <c r="I158" s="38"/>
@@ -10956,10 +10658,10 @@
     </row>
     <row r="159" ht="16.5" customHeight="1">
       <c r="D159" s="26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G159" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H159" s="38"/>
       <c r="I159" s="38"/>
@@ -10974,10 +10676,10 @@
     </row>
     <row r="160" ht="16.5" customHeight="1">
       <c r="D160" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G160" s="39" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H160" s="38"/>
       <c r="I160" s="38"/>
@@ -11017,7 +10719,7 @@
     </row>
     <row r="163" ht="16.5" customHeight="1">
       <c r="C163" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G163" s="38"/>
       <c r="H163" s="38"/>
@@ -11033,7 +10735,7 @@
     </row>
     <row r="164" ht="16.5" customHeight="1">
       <c r="D164" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
@@ -11049,7 +10751,7 @@
     </row>
     <row r="165" ht="16.5" customHeight="1">
       <c r="D165" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G165" s="38"/>
       <c r="H165" s="38"/>
@@ -11065,7 +10767,7 @@
     </row>
     <row r="166" ht="16.5" customHeight="1">
       <c r="D166" s="27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G166" s="38"/>
       <c r="H166" s="38"/>
@@ -11081,7 +10783,7 @@
     </row>
     <row r="167" ht="16.5" customHeight="1">
       <c r="D167" s="27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E167" s="27"/>
       <c r="G167" s="38"/>
@@ -11098,7 +10800,7 @@
     </row>
     <row r="168" ht="16.5" customHeight="1">
       <c r="D168" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G168" s="38"/>
       <c r="H168" s="38"/>
@@ -11114,7 +10816,7 @@
     </row>
     <row r="169" ht="16.5" customHeight="1">
       <c r="D169" s="40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G169" s="38"/>
       <c r="H169" s="38"/>
@@ -11130,7 +10832,7 @@
     </row>
     <row r="170" ht="16.5" customHeight="1">
       <c r="D170" s="41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G170" s="38"/>
       <c r="H170" s="38"/>
@@ -11159,12 +10861,12 @@
     </row>
     <row r="172" ht="21.75" customHeight="1">
       <c r="C172" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" ht="87.75" customHeight="1">
       <c r="C173" s="62" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D173" s="62"/>
       <c r="E173" s="62"/>
@@ -11322,13 +11024,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -11336,13 +11038,13 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3">
-        <v>0.564527876405237</v>
+        <v>0.566099006714141</v>
       </c>
       <c r="C2" s="3">
-        <v>1.66422893673033</v>
+        <v>1.66475859572461</v>
       </c>
       <c r="D2" s="3">
         <v>47</v>
@@ -11350,10 +11052,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
-        <v>0.960517710902314</v>
+        <v>0.960517710902311</v>
       </c>
       <c r="C3" s="3">
         <v>1.7990510640897</v>
@@ -11364,13 +11066,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.976729184342914</v>
       </c>
       <c r="C4" s="3">
-        <v>1.83486045163007</v>
+        <v>1.83486045163008</v>
       </c>
       <c r="D4" s="3">
         <v>19</v>
@@ -11378,7 +11080,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>1.12648239201688</v>
@@ -11392,7 +11094,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>2.64907304722184</v>
@@ -11445,7 +11147,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11480,144 +11182,50 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.8666168149</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.14180297</v>
-      </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.7366528699</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.51893697</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.3432426691</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.8680331800000003</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.3539978201</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.3265910099999996</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.3551090389</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.2710573399999996</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.3496956696</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.5423101999999997</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.3538106544</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.3359521599999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7.4013549262</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.83118561</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4.5317868643</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.43639407</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4.5313730086</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.43854364</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12079,10 +11687,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -12155,7 +11763,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>